--- a/docs/MC.xlsx
+++ b/docs/MC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>multicast packet ch01</t>
   </si>
@@ -78,46 +78,97 @@
     <t>2f</t>
   </si>
   <si>
-    <t>54a</t>
-  </si>
-  <si>
-    <t>54b</t>
-  </si>
-  <si>
-    <t>54c</t>
-  </si>
-  <si>
-    <t>54d</t>
-  </si>
-  <si>
-    <t>54e</t>
-  </si>
-  <si>
-    <t>54f</t>
-  </si>
-  <si>
-    <t>55a</t>
-  </si>
-  <si>
-    <t>55b</t>
-  </si>
-  <si>
-    <t>55c</t>
-  </si>
-  <si>
-    <t>55d</t>
-  </si>
-  <si>
-    <t>broadcast</t>
-  </si>
-  <si>
-    <t>mabr</t>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>4e</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>17 18 19 20 21 22 23 24</t>
+  </si>
+  <si>
+    <t>9 10 11 12 13 14 15 16</t>
+  </si>
+  <si>
+    <t>25 26 27 28 29 30 31 32</t>
+  </si>
+  <si>
+    <t>33 34 35 36 37 38 39 40</t>
+  </si>
+  <si>
+    <t>1g</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>buffer level</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3g</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>4g</t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -166,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -242,9 +293,20 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="dashDot">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -255,7 +317,379 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -264,41 +698,130 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="dashDot">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -308,51 +831,206 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -368,15 +1046,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -422,69 +1100,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Flowchart: Extract 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5981700" y="1724025"/>
-          <a:ext cx="161925" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartExtract">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -530,15 +1154,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -548,7 +1172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="2266950"/>
+          <a:off x="8069140" y="2264752"/>
           <a:ext cx="161925" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
@@ -584,15 +1208,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>83527</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>24179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -638,25 +1262,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>97448</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>78398</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>24179</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flowchart: Extract 9"/>
+        <xdr:cNvPr id="14" name="Flowchart: Extract 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4544890" y="4601308"/>
+          <a:off x="8032506" y="1545981"/>
           <a:ext cx="164123" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
@@ -978,499 +1602,2192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:AE22"/>
+  <dimension ref="B2:CA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="26" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="93" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:31">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+    <row r="2" spans="3:72">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7">
+        <v>9</v>
+      </c>
+      <c r="N2" s="7">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7">
+        <v>11</v>
+      </c>
+      <c r="P2" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>13</v>
+      </c>
+      <c r="R2" s="7">
+        <v>14</v>
+      </c>
+      <c r="S2" s="7">
+        <v>15</v>
+      </c>
+      <c r="T2" s="7">
+        <v>16</v>
+      </c>
+      <c r="U2" s="7">
+        <v>17</v>
+      </c>
+      <c r="V2" s="7">
+        <v>18</v>
+      </c>
+      <c r="W2" s="7">
+        <v>19</v>
+      </c>
+      <c r="X2" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>34</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>36</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>38</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>39</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>41</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>43</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>44</v>
+      </c>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
     </row>
-    <row r="5" spans="3:31">
-      <c r="C5" s="2" t="s">
+    <row r="3" spans="3:72">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+    </row>
+    <row r="4" spans="3:72" ht="15.75" thickBot="1">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+    </row>
+    <row r="5" spans="3:72" ht="15.75" thickBot="1">
+      <c r="C5" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15">
+        <v>7</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11">
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7"/>
+    </row>
+    <row r="6" spans="3:72">
+      <c r="C6" s="54"/>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28">
+        <v>2</v>
+      </c>
+      <c r="G6" s="28">
+        <v>3</v>
+      </c>
+      <c r="H6" s="28">
+        <v>4</v>
+      </c>
+      <c r="I6" s="28">
         <v>5</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="14">
-        <v>54</v>
-      </c>
-      <c r="R5" s="14">
-        <v>55</v>
-      </c>
-      <c r="S5" s="14">
-        <v>56</v>
-      </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="J6" s="28">
+        <v>6</v>
+      </c>
+      <c r="K6" s="29">
+        <v>7</v>
+      </c>
+      <c r="L6" s="28">
+        <v>8</v>
+      </c>
+      <c r="M6" s="28">
+        <v>9</v>
+      </c>
+      <c r="N6" s="28">
+        <v>10</v>
+      </c>
+      <c r="O6" s="28">
+        <v>11</v>
+      </c>
+      <c r="P6" s="28">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>13</v>
+      </c>
+      <c r="R6" s="28">
+        <v>14</v>
+      </c>
+      <c r="S6" s="28">
+        <v>15</v>
+      </c>
+      <c r="T6" s="34">
+        <v>16</v>
+      </c>
+      <c r="U6" s="40"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="48">
+        <v>41</v>
+      </c>
+      <c r="AT6" s="48">
+        <v>42</v>
+      </c>
+      <c r="AU6" s="48">
+        <v>43</v>
+      </c>
+      <c r="AV6" s="48">
+        <v>44</v>
+      </c>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
+      <c r="BR6" s="7"/>
+      <c r="BS6" s="7"/>
+      <c r="BT6" s="7"/>
     </row>
-    <row r="6" spans="3:31">
-      <c r="C6" s="2"/>
-      <c r="E6" s="15">
+    <row r="7" spans="3:72">
+      <c r="C7" s="54"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="BM7" s="7"/>
+      <c r="BN7" s="7"/>
+      <c r="BO7" s="7"/>
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+      <c r="BT7" s="7"/>
+    </row>
+    <row r="8" spans="3:72" ht="15.75" thickBot="1">
+      <c r="C8" s="54"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="7"/>
+    </row>
+    <row r="9" spans="3:72">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="7"/>
+    </row>
+    <row r="10" spans="3:72">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="7"/>
+    </row>
+    <row r="11" spans="3:72">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="58">
         <v>1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="O11" s="58">
         <v>2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="P11" s="58">
         <v>3</v>
       </c>
-      <c r="H6" s="15">
+      <c r="Q11" s="58">
         <v>4</v>
       </c>
-      <c r="I6" s="16">
+      <c r="R11" s="58">
         <v>5</v>
       </c>
-      <c r="J6" s="15">
+      <c r="S11" s="58">
         <v>6</v>
       </c>
-      <c r="K6" s="15">
+      <c r="T11" s="58">
         <v>7</v>
       </c>
-      <c r="L6" s="15">
+      <c r="U11" s="58">
         <v>8</v>
       </c>
-      <c r="M6" s="15">
+      <c r="V11" s="59">
         <v>9</v>
       </c>
-      <c r="N6" s="15">
+      <c r="W11" s="59">
         <v>10</v>
       </c>
-      <c r="O6" s="15">
+      <c r="X11" s="59">
         <v>11</v>
       </c>
-      <c r="P6" s="17">
+      <c r="Y11" s="59">
         <v>12</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14">
-        <v>57</v>
-      </c>
-      <c r="U6" s="14">
-        <v>58</v>
-      </c>
-      <c r="V6" s="14">
-        <v>59</v>
-      </c>
-      <c r="W6" s="18">
-        <v>60</v>
-      </c>
-      <c r="X6" s="18">
-        <v>61</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>63</v>
-      </c>
-      <c r="AC6" s="7"/>
-      <c r="AE6" t="s">
+      <c r="Z11" s="59">
+        <v>13</v>
+      </c>
+      <c r="AA11" s="59">
+        <v>14</v>
+      </c>
+      <c r="AB11" s="59">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="59">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="59">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="59">
+        <v>18</v>
+      </c>
+      <c r="AF11" s="59">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="59">
+        <v>20</v>
+      </c>
+      <c r="AH11" s="59">
+        <v>21</v>
+      </c>
+      <c r="AI11" s="59">
+        <v>22</v>
+      </c>
+      <c r="AJ11" s="59">
+        <v>23</v>
+      </c>
+      <c r="AK11" s="59">
+        <v>24</v>
+      </c>
+      <c r="AL11" s="59">
+        <v>25</v>
+      </c>
+      <c r="AM11" s="59">
+        <v>26</v>
+      </c>
+      <c r="AN11" s="59">
+        <v>27</v>
+      </c>
+      <c r="AO11" s="59">
+        <v>28</v>
+      </c>
+      <c r="AP11" s="59">
+        <v>29</v>
+      </c>
+      <c r="AQ11" s="59">
+        <v>30</v>
+      </c>
+      <c r="AR11" s="59">
+        <v>31</v>
+      </c>
+      <c r="AS11" s="59">
+        <v>32</v>
+      </c>
+      <c r="AT11" s="59">
+        <v>33</v>
+      </c>
+      <c r="AU11" s="59">
+        <v>34</v>
+      </c>
+      <c r="AV11" s="59">
+        <v>35</v>
+      </c>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="7"/>
+    </row>
+    <row r="12" spans="3:72">
+      <c r="C12" s="55"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
+    </row>
+    <row r="13" spans="3:72">
+      <c r="C13" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:Q13" si="0">E6-E11</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R13" s="7">
+        <f>R6-R11</f>
+        <v>9</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" ref="S13:T13" si="1">S6-S11</f>
+        <v>9</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U13" s="7">
+        <v>1</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7">
+        <f>AS6-AS11</f>
+        <v>9</v>
+      </c>
+      <c r="AT13" s="7">
+        <f t="shared" ref="AT13:AV13" si="2">AT6-AT11</f>
+        <v>9</v>
+      </c>
+      <c r="AU13" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AV13" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+    </row>
+    <row r="14" spans="3:72">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
+    </row>
+    <row r="15" spans="3:72">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
+      <c r="BL15" s="7"/>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="7"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+    </row>
+    <row r="16" spans="3:72">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="52">
+        <v>1</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52">
+        <v>2</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52">
+        <v>3</v>
+      </c>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="53">
+        <v>6</v>
+      </c>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+    </row>
+    <row r="17" spans="2:79" ht="15.75" thickBot="1">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+    </row>
+    <row r="18" spans="2:79" ht="15.75" thickBot="1">
+      <c r="C18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="37">
+        <v>2</v>
+      </c>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="39"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+    </row>
+    <row r="19" spans="2:79">
+      <c r="C19" s="9"/>
+      <c r="E19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="40"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC19" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD19" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE19" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF19" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG19" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ19" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL19" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM19" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN19" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO19" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP19" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+    </row>
+    <row r="20" spans="2:79">
+      <c r="C20" s="9"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="BL20" s="57"/>
+      <c r="BM20" s="57"/>
+      <c r="BN20" s="57"/>
+      <c r="BO20" s="57"/>
+      <c r="BP20" s="57"/>
+      <c r="BQ20" s="57"/>
+      <c r="BR20" s="57"/>
+      <c r="BS20" s="57"/>
+      <c r="BT20" s="57"/>
+      <c r="BU20" s="62"/>
+      <c r="BV20" s="7"/>
+      <c r="BW20" s="7"/>
+    </row>
+    <row r="21" spans="2:79" ht="15.75" thickBot="1">
+      <c r="C21" s="9"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="73"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+    </row>
+    <row r="22" spans="2:79">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+    </row>
+    <row r="23" spans="2:79">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7"/>
+      <c r="BL23" s="7"/>
+      <c r="BM23" s="7"/>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7"/>
+      <c r="BR23" s="7"/>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
+    </row>
+    <row r="24" spans="2:79">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="65">
+        <v>1</v>
+      </c>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65">
+        <v>2</v>
+      </c>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="66">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66">
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66">
+        <v>4</v>
+      </c>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+    </row>
+    <row r="25" spans="2:79">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="7"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7"/>
+      <c r="BR25" s="7"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
+    </row>
+    <row r="26" spans="2:79">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="61">
+        <v>1</v>
+      </c>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="61">
+        <v>1</v>
+      </c>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="61">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="61">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="60"/>
+      <c r="AS26" s="61"/>
+      <c r="AT26" s="60"/>
+      <c r="AU26" s="60"/>
+      <c r="AV26" s="60"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BK26" s="57"/>
+      <c r="BL26" s="57"/>
+      <c r="BM26" s="57"/>
+      <c r="BN26" s="62"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
+    </row>
+    <row r="29" spans="2:79">
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:31">
-      <c r="C7" s="2"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AC7" s="8"/>
-      <c r="AE7" t="s">
+    <row r="30" spans="2:79">
+      <c r="B30" s="6"/>
+      <c r="C30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:31">
-      <c r="C8" s="2"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" t="s">
+    <row r="31" spans="2:79">
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="57"/>
+      <c r="BL31" s="57"/>
+      <c r="BM31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BO31" s="57"/>
+      <c r="BP31" s="57"/>
+      <c r="BQ31" s="57"/>
+      <c r="BR31" s="57"/>
+      <c r="BS31" s="57"/>
+      <c r="BT31" s="57"/>
+      <c r="BU31" s="62"/>
+      <c r="BV31" s="7"/>
+      <c r="BW31" s="7"/>
+      <c r="BX31" s="7"/>
+      <c r="BY31" s="7"/>
+      <c r="BZ31" s="7"/>
+      <c r="CA31" s="7"/>
     </row>
-    <row r="9" spans="3:31" ht="15.75" thickBot="1">
-      <c r="C9" s="2"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AC9" s="5"/>
-      <c r="AE9" t="s">
+    <row r="32" spans="2:79">
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:31">
-      <c r="AC10" s="6"/>
-      <c r="AE10" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="4"/>
+      <c r="C33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:31">
-      <c r="AC11" s="4"/>
-      <c r="AE11" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:31">
-      <c r="AE12" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:31">
-      <c r="AE13" t="s">
+    <row r="36" spans="2:3">
+      <c r="C36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:26">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="3:26">
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-    </row>
-    <row r="19" spans="3:26">
-      <c r="C19" s="2"/>
-      <c r="E19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="U19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="W19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="X19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26">
-      <c r="C20" s="2"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-    </row>
-    <row r="21" spans="3:26">
-      <c r="C21" s="2"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-    </row>
-    <row r="22" spans="3:26" ht="15.75" thickBot="1">
-      <c r="C22" s="2"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="X19:X22"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="Z19:Z22"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="S18:S22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="W19:W22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="U6:U9"/>
-    <mergeCell ref="Z6:Z9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="Q5:Q9"/>
-    <mergeCell ref="R5:R9"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T6:T9"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="X6:X9"/>
-    <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
+  <mergeCells count="72">
+    <mergeCell ref="U24:Z24"/>
+    <mergeCell ref="AA19:AA21"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AJ19:AJ21"/>
+    <mergeCell ref="AK19:AK21"/>
+    <mergeCell ref="AL19:AL21"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AQ24:AV24"/>
+    <mergeCell ref="AN19:AN21"/>
+    <mergeCell ref="AO19:AO21"/>
+    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="AS16:AV16"/>
+    <mergeCell ref="M24:T24"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AI24:AP24"/>
+    <mergeCell ref="AM5:AR8"/>
+    <mergeCell ref="AK16:AR16"/>
+    <mergeCell ref="AA5:AF8"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="AC16:AJ16"/>
+    <mergeCell ref="AG5:AL8"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="U5:Z8"/>
+    <mergeCell ref="U18:Z21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="AV6:AV8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="AS6:AS8"/>
+    <mergeCell ref="AT6:AT8"/>
+    <mergeCell ref="AU6:AU8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
